--- a/válgazd/Táblázatok.xlsx
+++ b/válgazd/Táblázatok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocka\AndroidStudioProjects\school-notes\válgazd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F94C38-D612-4754-AB14-52AFBE669081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF1483-C4A7-4C2C-BBC5-A295BF9E9250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{40EDA1DD-5540-4590-85FD-2A25A45658CB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Közvetlen anyagköltség</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Lineáris módszer</t>
-  </si>
-  <si>
-    <t>Évek száma összege</t>
   </si>
   <si>
     <t>Teljes ár - maradvány</t>
@@ -834,10 +831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81031F41-9AA7-4ECB-8485-04B04320A174}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +847,7 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -867,13 +864,10 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -882,21 +876,22 @@
       </c>
       <c r="C2" s="2">
         <f>$F$2*B2</f>
-        <v>5000000</v>
+        <v>700000</v>
       </c>
       <c r="D2">
         <f>SUM(C$2:C2)</f>
-        <v>5000000</v>
+        <v>700000</v>
       </c>
       <c r="E2">
         <f>$F$4-D2</f>
-        <v>15000000</v>
+        <v>2300000</v>
       </c>
       <c r="F2">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F4-900000</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -905,21 +900,21 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C6" si="0">$F$2*B3</f>
-        <v>4000000</v>
+        <v>560000</v>
       </c>
       <c r="D3">
         <f>SUM(C$2:C3)</f>
-        <v>9000000</v>
+        <v>1260000</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="1">$F$4-D3</f>
-        <v>11000000</v>
+        <v>1740000</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -928,58 +923,58 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>420000</v>
       </c>
       <c r="D4">
         <f>SUM(C$2:C4)</f>
-        <v>12000000</v>
+        <v>1680000</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>8000000</v>
+        <v>1320000</v>
       </c>
       <c r="F4">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.133333333333333</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>1999999.9999999949</v>
+        <v>280000</v>
       </c>
       <c r="D5">
         <f>SUM(C$2:C5)</f>
-        <v>13999999.999999994</v>
+        <v>1960000</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>6000000.0000000056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6.6666666666666305E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>999999.99999999453</v>
+        <v>140000</v>
       </c>
       <c r="D6">
         <f>SUM(C$2:C6)</f>
-        <v>14999999.999999989</v>
+        <v>2100000</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>5000000.0000000112</v>
+        <v>900000</v>
       </c>
     </row>
   </sheetData>
